--- a/data/27-11-2025-employees.xlsx
+++ b/data/27-11-2025-employees.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="502">
   <si>
     <t>Id</t>
   </si>
@@ -1288,256 +1288,259 @@
     <t>SRIBAS MONDAL</t>
   </si>
   <si>
+    <t>d85ec46d-3976-4b7e-abfa-a80703cbe299</t>
+  </si>
+  <si>
+    <t>SUBHASIS ATORTHY</t>
+  </si>
+  <si>
+    <t>9432001092</t>
+  </si>
+  <si>
+    <t>P27, Tilottama Abasan, PO Bramhapur, Kolkata 700096</t>
+  </si>
+  <si>
+    <t>7138be3a-890e-41ae-a480-34583d7ffeae</t>
+  </si>
+  <si>
+    <t>a9bbe56d-818c-4bc9-bce4-6a29b5291f47</t>
+  </si>
+  <si>
+    <t>MANOJIT DEBNATH</t>
+  </si>
+  <si>
+    <t>9432000445</t>
+  </si>
+  <si>
+    <t>Modello Highs, Flat 1/8D, Narendrapur, Kolkata 700103</t>
+  </si>
+  <si>
+    <t>c31b2581-6d8f-4ac9-88f7-5bcb8e401ecd</t>
+  </si>
+  <si>
+    <t>BADDRUD ZAMAN LASKAR</t>
+  </si>
+  <si>
+    <t>9435512304</t>
+  </si>
+  <si>
+    <t>Sanchar Minar Alipore, Flat No 301, Kolkata 700027</t>
+  </si>
+  <si>
+    <t>1e8701a7-5f35-4628-bcd1-03c21f7650b7</t>
+  </si>
+  <si>
+    <t>5a886e0e-d9c0-4c73-94b2-cb6e769fb75c</t>
+  </si>
+  <si>
+    <t>WRITADEEP CHAKRABORTY</t>
+  </si>
+  <si>
+    <t>8902000169</t>
+  </si>
+  <si>
+    <t>Flat No 2A2, Pacific Point, 550 Boral Main Road, Kolkata 700154</t>
+  </si>
+  <si>
+    <t>5ea2e422-6c59-4d9f-b0a6-e6a7c02d8a91</t>
+  </si>
+  <si>
+    <t>MADHUSUDAN BAR</t>
+  </si>
+  <si>
+    <t>Vill-Dakshinserpur, PO-Panpur, PS-Amta, Howrah-711401</t>
+  </si>
+  <si>
+    <t>49836ab0-f0a4-4c9a-bfa4-c65d8f56ff75</t>
+  </si>
+  <si>
+    <t>f434dbed-ac74-4e46-8994-b370f946ff1a</t>
+  </si>
+  <si>
+    <t>KAUSIK BHOWMIK</t>
+  </si>
+  <si>
+    <t>Flat no. L-1/15, Govt. Housing(DAAS), Phase-III, Hooghly-712311</t>
+  </si>
+  <si>
+    <t>a29552a0-c1f8-413b-8862-a271251ad539</t>
+  </si>
+  <si>
+    <t>5e3552c4-1cc1-46b3-baa2-bd7ee9e5086e</t>
+  </si>
+  <si>
+    <t>SURAJIT MONDAL</t>
+  </si>
+  <si>
+    <t>Atreyi Appt., Mondal Bagan, Lichutala, Hooghly-712136</t>
+  </si>
+  <si>
+    <t>67f25c03-908e-4032-8af0-67287b6607b2</t>
+  </si>
+  <si>
+    <t>SARNADEEP DATTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rabindranagar, Opposite to Happy Health Nursing Home, PO-Midnapore, Dist-Mindapore-West, PIN-721101 </t>
+  </si>
+  <si>
+    <t>713993ab-6ff4-4fe6-aa61-9c3effabcbb1</t>
+  </si>
+  <si>
+    <t>PRANAB SIKDAR</t>
+  </si>
+  <si>
+    <t>Anuska Apartment, kamarpara, chinsurah, Hooghly-712101</t>
+  </si>
+  <si>
+    <t>0012a4aa-efd8-4e4d-aa31-5732f55bfd2b</t>
+  </si>
+  <si>
+    <t>f92afe03-8c5f-4e00-8c23-86968307bee4</t>
+  </si>
+  <si>
+    <t>PRIYANJALI SIRCAR</t>
+  </si>
+  <si>
+    <t>9432000144</t>
+  </si>
+  <si>
+    <t>Priyanath Apartment, 8/1, Dr. P.N.GHOSH Rd., Bally, Howrah-711201</t>
+  </si>
+  <si>
+    <t>34d4f34f-be5d-4e67-865b-c9f0534a95d9</t>
+  </si>
+  <si>
+    <t>6ead23fa-a001-4151-b378-1b4784058fc3</t>
+  </si>
+  <si>
+    <t>SANDEEP KUMAR</t>
+  </si>
+  <si>
+    <t>108 padripara Chandannagar Hooghly WB 712136</t>
+  </si>
+  <si>
+    <t>bb336e8c-1293-4c47-97a6-d55285d9b058</t>
+  </si>
+  <si>
+    <t>5df05fe7-0170-4d1d-a395-82f37760f63d</t>
+  </si>
+  <si>
+    <t>HRIDAY LAHA</t>
+  </si>
+  <si>
+    <t>AKANKHA APARTMENT, 97/A-H.K SARKAR ROAD,KOLEPARA,P.O.-TALPUKUR,BARRACKPORE,NORTH 24 PARGANAS,KOLKATA-7000123</t>
+  </si>
+  <si>
+    <t>c43c1e33-1328-44f5-8044-70a987f0e2a0</t>
+  </si>
+  <si>
+    <t>72e92438-6d30-46ff-b33d-cb502b263045</t>
+  </si>
+  <si>
+    <t>KRISHAN NANDAN THAKUR</t>
+  </si>
+  <si>
+    <t>Q.NO. E/4/7, SANCHAR VIHAR, TF COMPLEX, EA BLOCK, SALTLAKE,KOLKATA-700064</t>
+  </si>
+  <si>
+    <t>1c96c4b9-f5ef-461a-9795-ea75260422c8</t>
+  </si>
+  <si>
+    <t>31068f38-c0db-46fe-a1b7-56c739607b6a</t>
+  </si>
+  <si>
+    <t>RAHUL GOND</t>
+  </si>
+  <si>
+    <t>af01f145-6858-4a12-931e-be2cfe48f44c</t>
+  </si>
+  <si>
+    <t>3a970fa9-6879-44aa-be5c-eb6539380d35</t>
+  </si>
+  <si>
+    <t>Dipankar De Sarkar</t>
+  </si>
+  <si>
+    <t>DEBDAS PALLY, MADHYAMGRAM, KOLKATA - 700129.</t>
+  </si>
+  <si>
+    <t>bfe60cc8-afb0-47ba-bab0-912e4dac73f6</t>
+  </si>
+  <si>
+    <t>69d2f61a-3549-4f9f-8284-38d9949cf817</t>
+  </si>
+  <si>
+    <t>SURAJ DEV PRASAD</t>
+  </si>
+  <si>
+    <t>P&amp;T HOUSING COMPLEX, Q. NO.20,ULTADANGA, KOLKATA-700067</t>
+  </si>
+  <si>
+    <t>61940e36-beb7-4b61-893c-7012ee98fd83</t>
+  </si>
+  <si>
+    <t>1f59b414-f3c1-4878-9780-a28af71faf87</t>
+  </si>
+  <si>
+    <t>ARGHYA PAL</t>
+  </si>
+  <si>
+    <t>9433000524</t>
+  </si>
+  <si>
+    <t>96 DEWAN GAZI ROAD, BALLY, HOWRAH - 711201</t>
+  </si>
+  <si>
+    <t>f758fe0d-002b-4c92-a997-c516b3c79cfb</t>
+  </si>
+  <si>
+    <t>45dacb05-c9ed-4bfe-b749-51d3d072bea8</t>
+  </si>
+  <si>
+    <t>SUBRATA BARAI</t>
+  </si>
+  <si>
+    <t>9477899951</t>
+  </si>
+  <si>
+    <t>C/o- Ruudra Mukherjee, Jhorehat, Pachalpara, Andul, P. O- Sankrail,Howrah-711302</t>
+  </si>
+  <si>
+    <t>0967524f-1fd0-4964-aca9-715dc32a575c</t>
+  </si>
+  <si>
+    <t>0f579d4c-c92b-4f64-8574-8e0bea7f94cc</t>
+  </si>
+  <si>
+    <t>Debasis Das</t>
+  </si>
+  <si>
+    <t>764b4e06-2573-44f7-8e7a-5757e22e751d</t>
+  </si>
+  <si>
+    <t>023904db-7423-4c2e-835f-cf5a912d630f</t>
+  </si>
+  <si>
+    <t>SIBADAS BAG</t>
+  </si>
+  <si>
+    <t>C-506,LOHARUKA GREEN OASIS,KAIKHALI,KOL-700136</t>
+  </si>
+  <si>
     <t>162c3ba2-5dd4-4845-8525-b7f4f9b0e7eb</t>
   </si>
   <si>
     <t>RANAJIT SENSARMA</t>
   </si>
   <si>
+    <t>9432001339</t>
+  </si>
+  <si>
     <t>Flat No B2, AC 54, Sector-1, Salt Lake, Kolkata 700064</t>
   </si>
   <si>
     <t>98e2ca6c-9921-43b1-9138-85cf2d08ff1f</t>
-  </si>
-  <si>
-    <t>d85ec46d-3976-4b7e-abfa-a80703cbe299</t>
-  </si>
-  <si>
-    <t>SUBHASIS ATORTHY</t>
-  </si>
-  <si>
-    <t>9432001092</t>
-  </si>
-  <si>
-    <t>P27, Tilottama Abasan, PO Bramhapur, Kolkata 700096</t>
-  </si>
-  <si>
-    <t>7138be3a-890e-41ae-a480-34583d7ffeae</t>
-  </si>
-  <si>
-    <t>a9bbe56d-818c-4bc9-bce4-6a29b5291f47</t>
-  </si>
-  <si>
-    <t>MANOJIT DEBNATH</t>
-  </si>
-  <si>
-    <t>9432000445</t>
-  </si>
-  <si>
-    <t>Modello Highs, Flat 1/8D, Narendrapur, Kolkata 700103</t>
-  </si>
-  <si>
-    <t>c31b2581-6d8f-4ac9-88f7-5bcb8e401ecd</t>
-  </si>
-  <si>
-    <t>BADDRUD ZAMAN LASKAR</t>
-  </si>
-  <si>
-    <t>9435512304</t>
-  </si>
-  <si>
-    <t>Sanchar Minar Alipore, Flat No 301, Kolkata 700027</t>
-  </si>
-  <si>
-    <t>1e8701a7-5f35-4628-bcd1-03c21f7650b7</t>
-  </si>
-  <si>
-    <t>5a886e0e-d9c0-4c73-94b2-cb6e769fb75c</t>
-  </si>
-  <si>
-    <t>WRITADEEP CHAKRABORTY</t>
-  </si>
-  <si>
-    <t>8902000169</t>
-  </si>
-  <si>
-    <t>Flat No 2A2, Pacific Point, 550 Boral Main Road, Kolkata 700154</t>
-  </si>
-  <si>
-    <t>5ea2e422-6c59-4d9f-b0a6-e6a7c02d8a91</t>
-  </si>
-  <si>
-    <t>MADHUSUDAN BAR</t>
-  </si>
-  <si>
-    <t>Vill-Dakshinserpur, PO-Panpur, PS-Amta, Howrah-711401</t>
-  </si>
-  <si>
-    <t>49836ab0-f0a4-4c9a-bfa4-c65d8f56ff75</t>
-  </si>
-  <si>
-    <t>f434dbed-ac74-4e46-8994-b370f946ff1a</t>
-  </si>
-  <si>
-    <t>KAUSIK BHOWMIK</t>
-  </si>
-  <si>
-    <t>Flat no. L-1/15, Govt. Housing(DAAS), Phase-III, Hooghly-712311</t>
-  </si>
-  <si>
-    <t>a29552a0-c1f8-413b-8862-a271251ad539</t>
-  </si>
-  <si>
-    <t>5e3552c4-1cc1-46b3-baa2-bd7ee9e5086e</t>
-  </si>
-  <si>
-    <t>SURAJIT MONDAL</t>
-  </si>
-  <si>
-    <t>Atreyi Appt., Mondal Bagan, Lichutala, Hooghly-712136</t>
-  </si>
-  <si>
-    <t>67f25c03-908e-4032-8af0-67287b6607b2</t>
-  </si>
-  <si>
-    <t>SARNADEEP DATTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabindranagar, Opposite to Happy Health Nursing Home, PO-Midnapore, Dist-Mindapore-West, PIN-721101 </t>
-  </si>
-  <si>
-    <t>713993ab-6ff4-4fe6-aa61-9c3effabcbb1</t>
-  </si>
-  <si>
-    <t>PRANAB SIKDAR</t>
-  </si>
-  <si>
-    <t>Anuska Apartment, kamarpara, chinsurah, Hooghly-712101</t>
-  </si>
-  <si>
-    <t>0012a4aa-efd8-4e4d-aa31-5732f55bfd2b</t>
-  </si>
-  <si>
-    <t>f92afe03-8c5f-4e00-8c23-86968307bee4</t>
-  </si>
-  <si>
-    <t>PRIYANJALI SIRCAR</t>
-  </si>
-  <si>
-    <t>9432000144</t>
-  </si>
-  <si>
-    <t>Priyanath Apartment, 8/1, Dr. P.N.GHOSH Rd., Bally, Howrah-711201</t>
-  </si>
-  <si>
-    <t>34d4f34f-be5d-4e67-865b-c9f0534a95d9</t>
-  </si>
-  <si>
-    <t>6ead23fa-a001-4151-b378-1b4784058fc3</t>
-  </si>
-  <si>
-    <t>SANDEEP KUMAR</t>
-  </si>
-  <si>
-    <t>108 padripara Chandannagar Hooghly WB 712136</t>
-  </si>
-  <si>
-    <t>bb336e8c-1293-4c47-97a6-d55285d9b058</t>
-  </si>
-  <si>
-    <t>5df05fe7-0170-4d1d-a395-82f37760f63d</t>
-  </si>
-  <si>
-    <t>HRIDAY LAHA</t>
-  </si>
-  <si>
-    <t>AKANKHA APARTMENT, 97/A-H.K SARKAR ROAD,KOLEPARA,P.O.-TALPUKUR,BARRACKPORE,NORTH 24 PARGANAS,KOLKATA-7000123</t>
-  </si>
-  <si>
-    <t>c43c1e33-1328-44f5-8044-70a987f0e2a0</t>
-  </si>
-  <si>
-    <t>72e92438-6d30-46ff-b33d-cb502b263045</t>
-  </si>
-  <si>
-    <t>KRISHAN NANDAN THAKUR</t>
-  </si>
-  <si>
-    <t>Q.NO. E/4/7, SANCHAR VIHAR, TF COMPLEX, EA BLOCK, SALTLAKE,KOLKATA-700064</t>
-  </si>
-  <si>
-    <t>1c96c4b9-f5ef-461a-9795-ea75260422c8</t>
-  </si>
-  <si>
-    <t>31068f38-c0db-46fe-a1b7-56c739607b6a</t>
-  </si>
-  <si>
-    <t>RAHUL GOND</t>
-  </si>
-  <si>
-    <t>af01f145-6858-4a12-931e-be2cfe48f44c</t>
-  </si>
-  <si>
-    <t>3a970fa9-6879-44aa-be5c-eb6539380d35</t>
-  </si>
-  <si>
-    <t>Dipankar De Sarkar</t>
-  </si>
-  <si>
-    <t>DEBDAS PALLY, MADHYAMGRAM, KOLKATA - 700129.</t>
-  </si>
-  <si>
-    <t>bfe60cc8-afb0-47ba-bab0-912e4dac73f6</t>
-  </si>
-  <si>
-    <t>69d2f61a-3549-4f9f-8284-38d9949cf817</t>
-  </si>
-  <si>
-    <t>SURAJ DEV PRASAD</t>
-  </si>
-  <si>
-    <t>P&amp;T HOUSING COMPLEX, Q. NO.20,ULTADANGA, KOLKATA-700067</t>
-  </si>
-  <si>
-    <t>61940e36-beb7-4b61-893c-7012ee98fd83</t>
-  </si>
-  <si>
-    <t>1f59b414-f3c1-4878-9780-a28af71faf87</t>
-  </si>
-  <si>
-    <t>ARGHYA PAL</t>
-  </si>
-  <si>
-    <t>9433000524</t>
-  </si>
-  <si>
-    <t>96 DEWAN GAZI ROAD, BALLY, HOWRAH - 711201</t>
-  </si>
-  <si>
-    <t>f758fe0d-002b-4c92-a997-c516b3c79cfb</t>
-  </si>
-  <si>
-    <t>023904db-7423-4c2e-835f-cf5a912d630f</t>
-  </si>
-  <si>
-    <t>SIBADAS BAG</t>
-  </si>
-  <si>
-    <t>C-506,LOHARUKA GREEN OASIS,KAIKHALI,KOL-700136</t>
-  </si>
-  <si>
-    <t>45dacb05-c9ed-4bfe-b749-51d3d072bea8</t>
-  </si>
-  <si>
-    <t>SUBRATA BARAI</t>
-  </si>
-  <si>
-    <t>9477899951</t>
-  </si>
-  <si>
-    <t>C/o- Ruudra Mukherjee, Jhorehat, Pachalpara, Andul, P. O- Sankrail,Howrah-711302</t>
-  </si>
-  <si>
-    <t>0967524f-1fd0-4964-aca9-715dc32a575c</t>
-  </si>
-  <si>
-    <t>0f579d4c-c92b-4f64-8574-8e0bea7f94cc</t>
-  </si>
-  <si>
-    <t>Debasis Das</t>
-  </si>
-  <si>
-    <t>764b4e06-2573-44f7-8e7a-5757e22e751d</t>
   </si>
 </sst>
 </file>
@@ -5304,7 +5307,7 @@
         <v>417</v>
       </c>
       <c r="B102" s="2">
-        <v>205140</v>
+        <v>99104961</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>418</v>
@@ -5312,12 +5315,14 @@
       <c r="D102" s="3"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="H102" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3" t="s">
@@ -5333,25 +5338,25 @@
     </row>
     <row r="103" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B103" s="6">
-        <v>99104961</v>
+        <v>600436</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J103" s="7"/>
       <c r="K103" s="7" t="s">
@@ -5370,7 +5375,7 @@
         <v>426</v>
       </c>
       <c r="B104" s="2">
-        <v>600436</v>
+        <v>1400892</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>427</v>
@@ -5385,7 +5390,7 @@
         <v>429</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="J104" s="3"/>
       <c r="K104" s="3" t="s">
@@ -5401,25 +5406,25 @@
     </row>
     <row r="105" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B105" s="6">
-        <v>1400892</v>
+        <v>802784</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D105" s="7"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7" t="s">
@@ -5438,7 +5443,7 @@
         <v>435</v>
       </c>
       <c r="B106" s="2">
-        <v>802784</v>
+        <v>304945</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>436</v>
@@ -5446,14 +5451,12 @@
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="3" t="s">
+      <c r="G106" s="3"/>
+      <c r="H106" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="I106" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="J106" s="3"/>
       <c r="K106" s="3" t="s">
@@ -5472,7 +5475,7 @@
         <v>439</v>
       </c>
       <c r="B107" s="6">
-        <v>304945</v>
+        <v>1200412</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>440</v>
@@ -5504,7 +5507,7 @@
         <v>443</v>
       </c>
       <c r="B108" s="2">
-        <v>1200412</v>
+        <v>600585</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>444</v>
@@ -5517,7 +5520,7 @@
         <v>445</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J108" s="3"/>
       <c r="K108" s="3" t="s">
@@ -5533,23 +5536,23 @@
     </row>
     <row r="109" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="6">
+        <v>1002862</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="B109" s="6">
-        <v>600585</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7" t="s">
@@ -5565,23 +5568,23 @@
     </row>
     <row r="110" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B110" s="2">
+        <v>600648</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1002862</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="3" t="s">
@@ -5600,7 +5603,7 @@
         <v>453</v>
       </c>
       <c r="B111" s="6">
-        <v>600648</v>
+        <v>1001030</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>454</v>
@@ -5608,12 +5611,14 @@
       <c r="D111" s="7"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-      <c r="G111" s="7"/>
+      <c r="G111" s="7" t="s">
+        <v>455</v>
+      </c>
       <c r="H111" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="J111" s="7"/>
       <c r="K111" s="7" t="s">
@@ -5629,20 +5634,18 @@
     </row>
     <row r="112" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B112" s="2">
-        <v>1001030</v>
+        <v>803955</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="G112" s="3" t="s">
-        <v>459</v>
-      </c>
+      <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
         <v>460</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>462</v>
       </c>
       <c r="B113" s="6">
-        <v>803955</v>
+        <v>804001</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>463</v>
@@ -5698,7 +5701,7 @@
         <v>466</v>
       </c>
       <c r="B114" s="2">
-        <v>804001</v>
+        <v>904102</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>467</v>
@@ -5730,7 +5733,7 @@
         <v>470</v>
       </c>
       <c r="B115" s="6">
-        <v>904102</v>
+        <v>1401366</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>471</v>
@@ -5739,11 +5742,9 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="7" t="s">
+      <c r="H115" s="7"/>
+      <c r="I115" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7" t="s">
@@ -5759,19 +5760,21 @@
     </row>
     <row r="116" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B116" s="2">
+        <v>600649</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="B116" s="2">
-        <v>1401366</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>475</v>
+      </c>
       <c r="I116" s="3" t="s">
         <v>476</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>477</v>
       </c>
       <c r="B117" s="6">
-        <v>600649</v>
+        <v>1001028</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>478</v>
@@ -5824,7 +5827,7 @@
         <v>481</v>
       </c>
       <c r="B118" s="2">
-        <v>1001028</v>
+        <v>903870</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>482</v>
@@ -5832,12 +5835,14 @@
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="G118" s="3"/>
+      <c r="G118" s="3" t="s">
+        <v>483</v>
+      </c>
       <c r="H118" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J118" s="3"/>
       <c r="K118" s="3" t="s">
@@ -5853,25 +5858,25 @@
     </row>
     <row r="119" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B119" s="6">
-        <v>903870</v>
+        <v>1200007</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D119" s="7"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J119" s="7"/>
       <c r="K119" s="7" t="s">
@@ -5882,64 +5887,62 @@
         <v>45879</v>
       </c>
       <c r="N119" s="8">
-        <v>45893</v>
+        <v>45962</v>
       </c>
     </row>
     <row r="120" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B120" s="2">
-        <v>304818</v>
+        <v>1401245</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>492</v>
-      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
       <c r="I120" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="J120" s="3"/>
+        <v>493</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="K120" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L120" s="3"/>
       <c r="M120" s="4">
-        <v>45879</v>
+        <v>45974</v>
       </c>
       <c r="N120" s="4">
-        <v>45962</v>
+        <v>45974</v>
       </c>
     </row>
     <row r="121" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B121" s="6">
-        <v>1200007</v>
+        <v>304818</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D121" s="7"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="7" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>496</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>497</v>
+        <v>293</v>
       </c>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
@@ -5950,39 +5953,41 @@
         <v>45879</v>
       </c>
       <c r="N121" s="8">
-        <v>45962</v>
+        <v>45988.28700761574</v>
       </c>
     </row>
     <row r="122" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B122" s="10">
+        <v>205140</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>498</v>
-      </c>
-      <c r="B122" s="10">
-        <v>1401245</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>499</v>
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
+      <c r="G122" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="H122" s="11" t="s">
+        <v>500</v>
+      </c>
       <c r="I122" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>125</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="J122" s="11"/>
       <c r="K122" s="11" t="s">
         <v>18</v>
       </c>
       <c r="L122" s="11"/>
       <c r="M122" s="12">
-        <v>45974</v>
+        <v>45879</v>
       </c>
       <c r="N122" s="12">
-        <v>45974</v>
+        <v>45988.29561681713</v>
       </c>
     </row>
   </sheetData>
